--- a/data/amoco_HN.xlsx
+++ b/data/amoco_HN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10619235_polimi_it/Documents/Documenti/GitHub/AD-OCS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_0E74576A90207AFC4BB62069B49377B515E2BB37" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23E596EF-5893-4929-8FED-3D20D76DC948}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_0E74576A90207AFC4BB62069B49377B515E2BB37" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D44B4BC3-419B-46A6-96A6-0019D8CC7A47}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,20 @@
     <sheet name="Influent" sheetId="2" r:id="rId2"/>
     <sheet name="Deviations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -550,13 +563,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -579,8 +597,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -920,9 +939,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1541,6 +1562,9 @@
       <c r="N14" t="s">
         <v>158</v>
       </c>
+    </row>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/amoco_HN.xlsx
+++ b/data/amoco_HN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10619235_polimi_it/Documents/Documenti/GitHub/AD-OCS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_0E74576A90207AFC4BB62069B49377B515E2BB37" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D44B4BC3-419B-46A6-96A6-0019D8CC7A47}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_0E74576A90207AFC4BB62069B49377B515E2BB37" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A072CF0-5A17-48E0-9802-67097F39CC86}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SS_Values" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="170">
   <si>
     <t>HRT_x000D_
 [days]</t>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>Qin</t>
   </si>
 </sst>
 </file>
@@ -1578,9 +1581,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1626,15 +1634,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>168</v>
       </c>
@@ -1653,8 +1661,11 @@
       <c r="F1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>20</v>
       </c>
@@ -1673,8 +1684,11 @@
       <c r="F2">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>120</v>
       </c>
@@ -1692,6 +1706,9 @@
       </c>
       <c r="F3">
         <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/data/amoco_HN.xlsx
+++ b/data/amoco_HN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10619235_polimi_it/Documents/Documenti/GitHub/AD-OCS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_0E74576A90207AFC4BB62069B49377B515E2BB37" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A072CF0-5A17-48E0-9802-67097F39CC86}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_0E74576A90207AFC4BB62069B49377B515E2BB37" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE4312DF-87CD-42E2-A96A-8E0DFC9F21DF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SS_Values" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="173">
   <si>
     <t>HRT_x000D_
 [days]</t>
@@ -560,6 +560,15 @@
   </si>
   <si>
     <t>Qin</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
   </si>
 </sst>
 </file>
@@ -942,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1566,8 +1575,185 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G16" t="s">
+        <v>170</v>
+      </c>
+      <c r="I16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <f>L2-1/SS_Values!A2*(Influent!C2-SS_Values!H2)</f>
+        <v>49.8</v>
+      </c>
+      <c r="I17">
+        <f>1/A2*(Influent!A2-SS_Values!B2)+5*C2</f>
+        <v>6.3183999999999996</v>
+      </c>
+      <c r="J17" t="str">
+        <f>N2</f>
+        <v>62.4</v>
+      </c>
       <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <f>L3-1/SS_Values!A3*(Influent!C3-SS_Values!H3)</f>
+        <v>43.274999999999999</v>
+      </c>
+      <c r="I18">
+        <f>1/A3*(Influent!A3-SS_Values!B3)+5*C3</f>
+        <v>4.5575000000000001</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" ref="J18:J28" si="0">N3</f>
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="19" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <f>L4-1/SS_Values!A4*(Influent!C4-SS_Values!H4)</f>
+        <v>36.5</v>
+      </c>
+      <c r="I19">
+        <f>1/A4*(Influent!A4-SS_Values!B4)+5*C4</f>
+        <v>3.8750000000000004</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="20" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G20">
+        <f>L5-1/SS_Values!A5*(Influent!C5-SS_Values!H5)</f>
+        <v>31.166666666666664</v>
+      </c>
+      <c r="I20">
+        <f>1/A5*(Influent!A5-SS_Values!B5)+5*C5</f>
+        <v>3.3833333333333337</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>33.8</v>
+      </c>
+    </row>
+    <row r="21" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G21">
+        <f>L6-1/SS_Values!A6*(Influent!C6-SS_Values!H6)</f>
+        <v>25.3</v>
+      </c>
+      <c r="I21">
+        <f>1/A6*(Influent!A6-SS_Values!B6)+5*C6</f>
+        <v>2.89</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="22" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G22">
+        <f>L7-1/SS_Values!A7*(Influent!C7-SS_Values!H7)</f>
+        <v>22.482352941176472</v>
+      </c>
+      <c r="I22">
+        <f>1/A7*(Influent!A7-SS_Values!B7)+5*C7</f>
+        <v>2.6423529411764708</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="23" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G23">
+        <f>L8-1/SS_Values!A8*(Influent!C8-SS_Values!H8)</f>
+        <v>19.350000000000001</v>
+      </c>
+      <c r="I23">
+        <f>1/A8*(Influent!A8-SS_Values!B8)+5*C8</f>
+        <v>2.3439999999999999</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="24" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G24">
+        <f>L9-1/SS_Values!A9*(Influent!C9-SS_Values!H9)</f>
+        <v>17.554545454545455</v>
+      </c>
+      <c r="I24">
+        <f>1/A9*(Influent!A9-SS_Values!B9)+5*C9</f>
+        <v>2.1950000000000003</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="25" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G25">
+        <f>L10-1/SS_Values!A10*(Influent!C10-SS_Values!H10)</f>
+        <v>15.56</v>
+      </c>
+      <c r="I25">
+        <f>1/A10*(Influent!A10-SS_Values!B10)+5*C10</f>
+        <v>1.996</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="26" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G26">
+        <f>L11-1/SS_Values!A11*(Influent!C11-SS_Values!H11)</f>
+        <v>13.066666666666666</v>
+      </c>
+      <c r="I26">
+        <f>1/A11*(Influent!A11-SS_Values!B11)+5*C11</f>
+        <v>1.7473333333333334</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="27" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G27">
+        <f>L12-1/SS_Values!A12*(Influent!C12-SS_Values!H12)</f>
+        <v>7.98</v>
+      </c>
+      <c r="I27">
+        <f>1/A12*(Influent!A12-SS_Values!B12)+5*C12</f>
+        <v>1.1987999999999999</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="28" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G28">
+        <f>L13-1/SS_Values!A13*(Influent!C13-SS_Values!H13)</f>
+        <v>5.7857142857142856</v>
+      </c>
+      <c r="I28">
+        <f>1/A13*(Influent!A13-SS_Values!B13)+5*C13</f>
+        <v>0.94928571428571429</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>6.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1581,7 +1767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
